--- a/po_analysis_by_asin/B083R826VW_po_data.xlsx
+++ b/po_analysis_by_asin/B083R826VW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,177 +452,457 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1080</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1940</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45411</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45425</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45460</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45467</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45474</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>980</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45537</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45544</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45551</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45558</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45565</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45579</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B23" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B58" t="n">
         <v>300</v>
       </c>
     </row>
@@ -637,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,65 +939,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>690</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1440</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2250</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>160</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1040</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>500</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083R826VW_po_data.xlsx
+++ b/po_analysis_by_asin/B083R826VW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,100 +551,100 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>460</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>140</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>330</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>410</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>480</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>520</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>190</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>200</v>
@@ -652,159 +652,159 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>360</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>520</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>270</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>30</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>270</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>1080</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>1940</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>310</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>60</v>
@@ -812,97 +812,57 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45550.99999999999</v>
-      </c>
-      <c r="B54" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45557.99999999999</v>
-      </c>
-      <c r="B55" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45564.99999999999</v>
-      </c>
-      <c r="B56" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45571.99999999999</v>
-      </c>
-      <c r="B57" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B58" t="n">
         <v>300</v>
       </c>
     </row>
@@ -966,7 +926,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1340</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +934,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1430</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7">

--- a/po_analysis_by_asin/B083R826VW_po_data.xlsx
+++ b/po_analysis_by_asin/B083R826VW_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -893,7 +894,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1039,6 +1040,887 @@
       </c>
       <c r="B19" t="n">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-250.6078954694766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>564.1088080191415</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>152</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-243.812915757228</v>
+      </c>
+      <c r="D3" t="n">
+        <v>565.3927907979044</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>154</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-219.7109403895931</v>
+      </c>
+      <c r="D4" t="n">
+        <v>584.4762988321504</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>155</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-270.9818485649732</v>
+      </c>
+      <c r="D5" t="n">
+        <v>559.0312666001884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>159</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-247.3351079068102</v>
+      </c>
+      <c r="D6" t="n">
+        <v>569.3229173707226</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>162</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-235.8151372618638</v>
+      </c>
+      <c r="D7" t="n">
+        <v>578.5737777523658</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>164</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-270.1784508766081</v>
+      </c>
+      <c r="D8" t="n">
+        <v>577.2847377554599</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>166</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-244.1271230718218</v>
+      </c>
+      <c r="D9" t="n">
+        <v>582.9355568477537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>167</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-226.7176854972072</v>
+      </c>
+      <c r="D10" t="n">
+        <v>584.5358691372577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>169</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-204.1895762387808</v>
+      </c>
+      <c r="D11" t="n">
+        <v>560.0143122092137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-241.0955401536781</v>
+      </c>
+      <c r="D12" t="n">
+        <v>569.7713916656533</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>172</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-229.7038995180715</v>
+      </c>
+      <c r="D13" t="n">
+        <v>605.9118740529345</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>174</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-245.0504068527566</v>
+      </c>
+      <c r="D14" t="n">
+        <v>592.7206033415679</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>179</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-221.8444527470265</v>
+      </c>
+      <c r="D15" t="n">
+        <v>582.0209321573318</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>184</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-218.1429498191668</v>
+      </c>
+      <c r="D16" t="n">
+        <v>596.0869805444859</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>188</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-218.5060536391856</v>
+      </c>
+      <c r="D17" t="n">
+        <v>610.7449116821531</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>190</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-204.4466852199109</v>
+      </c>
+      <c r="D18" t="n">
+        <v>567.729578836194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>191</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-215.8276474676452</v>
+      </c>
+      <c r="D19" t="n">
+        <v>576.8736925643695</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>193</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-224.4537692885566</v>
+      </c>
+      <c r="D20" t="n">
+        <v>604.9324942485266</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>198</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-193.3249617715551</v>
+      </c>
+      <c r="D21" t="n">
+        <v>571.8593222373941</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-192.1584948395872</v>
+      </c>
+      <c r="D22" t="n">
+        <v>609.9612619121378</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>202</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-214.806295792353</v>
+      </c>
+      <c r="D23" t="n">
+        <v>584.3430516941751</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>205</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-183.6687517706385</v>
+      </c>
+      <c r="D24" t="n">
+        <v>645.0168399834016</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>207</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-199.8928390991081</v>
+      </c>
+      <c r="D25" t="n">
+        <v>613.882590740065</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>208</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-203.3712464751236</v>
+      </c>
+      <c r="D26" t="n">
+        <v>596.6500787825605</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>210</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-184.1571482932552</v>
+      </c>
+      <c r="D27" t="n">
+        <v>615.3743615991089</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>212</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-190.9550852444267</v>
+      </c>
+      <c r="D28" t="n">
+        <v>625.0137853817711</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>214</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-197.5487636912597</v>
+      </c>
+      <c r="D29" t="n">
+        <v>638.0778145247619</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>215</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-187.8618248386521</v>
+      </c>
+      <c r="D30" t="n">
+        <v>617.8300117660276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>219</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-143.0525781071484</v>
+      </c>
+      <c r="D31" t="n">
+        <v>628.0726842601082</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>227</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-170.4306019477474</v>
+      </c>
+      <c r="D32" t="n">
+        <v>665.2185152569886</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>229</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-183.3071517255414</v>
+      </c>
+      <c r="D33" t="n">
+        <v>667.2424218385895</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>231</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-200.6985138798912</v>
+      </c>
+      <c r="D34" t="n">
+        <v>613.7021503156516</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>232</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-180.9648452071107</v>
+      </c>
+      <c r="D35" t="n">
+        <v>650.604289464809</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>234</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-197.1971400958164</v>
+      </c>
+      <c r="D36" t="n">
+        <v>665.8555631882721</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>237</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-161.9534603948039</v>
+      </c>
+      <c r="D37" t="n">
+        <v>640.1545848500188</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>241</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-133.1458565760508</v>
+      </c>
+      <c r="D38" t="n">
+        <v>644.1330788070374</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>244</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-172.5830423225918</v>
+      </c>
+      <c r="D39" t="n">
+        <v>653.9158798891086</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>255</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-137.0553342970521</v>
+      </c>
+      <c r="D40" t="n">
+        <v>681.058744520918</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>256</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-162.5561222230879</v>
+      </c>
+      <c r="D41" t="n">
+        <v>661.2177571897599</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>258</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-155.2319991759211</v>
+      </c>
+      <c r="D42" t="n">
+        <v>686.7758146314875</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>265</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-158.8405799910501</v>
+      </c>
+      <c r="D43" t="n">
+        <v>688.6636576130987</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>266</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-159.2096191185633</v>
+      </c>
+      <c r="D44" t="n">
+        <v>689.2025938242438</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>268</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-133.1233982442465</v>
+      </c>
+      <c r="D45" t="n">
+        <v>658.7782611931052</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>270</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-115.7704249167692</v>
+      </c>
+      <c r="D46" t="n">
+        <v>673.170715609945</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>273</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-141.9110908779619</v>
+      </c>
+      <c r="D47" t="n">
+        <v>684.255151715775</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>285</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-144.605036115071</v>
+      </c>
+      <c r="D48" t="n">
+        <v>680.1887598585121</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>287</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-121.8118551303266</v>
+      </c>
+      <c r="D49" t="n">
+        <v>697.6005664176463</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>289</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-123.5401259242626</v>
+      </c>
+      <c r="D50" t="n">
+        <v>696.6532849912813</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>290</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-143.4414486643322</v>
+      </c>
+      <c r="D51" t="n">
+        <v>653.4829814105872</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>292</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-114.1064786554797</v>
+      </c>
+      <c r="D52" t="n">
+        <v>719.1578919376384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>296</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-140.4427909382013</v>
+      </c>
+      <c r="D53" t="n">
+        <v>709.2233034831384</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>297</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-93.37523929648128</v>
+      </c>
+      <c r="D54" t="n">
+        <v>705.1292581744472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>299</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-136.2841929493068</v>
+      </c>
+      <c r="D55" t="n">
+        <v>688.2866227362425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>301</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-75.850916194337</v>
+      </c>
+      <c r="D56" t="n">
+        <v>725.2527287747047</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>302</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-101.3877196515476</v>
+      </c>
+      <c r="D57" t="n">
+        <v>718.9166568389173</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>304</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-69.31330292229246</v>
+      </c>
+      <c r="D58" t="n">
+        <v>717.2380787853631</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>306</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-109.0741517221118</v>
+      </c>
+      <c r="D59" t="n">
+        <v>722.4774114231493</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>308</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-85.38687562603502</v>
+      </c>
+      <c r="D60" t="n">
+        <v>730.883719539659</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>309</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-103.8415247864212</v>
+      </c>
+      <c r="D61" t="n">
+        <v>744.5020467831605</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083R826VW_po_data.xlsx
+++ b/po_analysis_by_asin/B083R826VW_po_data.xlsx
@@ -1053,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,16 +1072,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1090,12 +1080,6 @@
       <c r="B2" t="n">
         <v>150</v>
       </c>
-      <c r="C2" t="n">
-        <v>-250.6078954694766</v>
-      </c>
-      <c r="D2" t="n">
-        <v>564.1088080191415</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1104,12 +1088,6 @@
       <c r="B3" t="n">
         <v>152</v>
       </c>
-      <c r="C3" t="n">
-        <v>-243.812915757228</v>
-      </c>
-      <c r="D3" t="n">
-        <v>565.3927907979044</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1118,12 +1096,6 @@
       <c r="B4" t="n">
         <v>154</v>
       </c>
-      <c r="C4" t="n">
-        <v>-219.7109403895931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>584.4762988321504</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1132,12 +1104,6 @@
       <c r="B5" t="n">
         <v>155</v>
       </c>
-      <c r="C5" t="n">
-        <v>-270.9818485649732</v>
-      </c>
-      <c r="D5" t="n">
-        <v>559.0312666001884</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1146,12 +1112,6 @@
       <c r="B6" t="n">
         <v>159</v>
       </c>
-      <c r="C6" t="n">
-        <v>-247.3351079068102</v>
-      </c>
-      <c r="D6" t="n">
-        <v>569.3229173707226</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1160,12 +1120,6 @@
       <c r="B7" t="n">
         <v>162</v>
       </c>
-      <c r="C7" t="n">
-        <v>-235.8151372618638</v>
-      </c>
-      <c r="D7" t="n">
-        <v>578.5737777523658</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1174,12 +1128,6 @@
       <c r="B8" t="n">
         <v>164</v>
       </c>
-      <c r="C8" t="n">
-        <v>-270.1784508766081</v>
-      </c>
-      <c r="D8" t="n">
-        <v>577.2847377554599</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1188,12 +1136,6 @@
       <c r="B9" t="n">
         <v>166</v>
       </c>
-      <c r="C9" t="n">
-        <v>-244.1271230718218</v>
-      </c>
-      <c r="D9" t="n">
-        <v>582.9355568477537</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1202,12 +1144,6 @@
       <c r="B10" t="n">
         <v>167</v>
       </c>
-      <c r="C10" t="n">
-        <v>-226.7176854972072</v>
-      </c>
-      <c r="D10" t="n">
-        <v>584.5358691372577</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1216,12 +1152,6 @@
       <c r="B11" t="n">
         <v>169</v>
       </c>
-      <c r="C11" t="n">
-        <v>-204.1895762387808</v>
-      </c>
-      <c r="D11" t="n">
-        <v>560.0143122092137</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1230,12 +1160,6 @@
       <c r="B12" t="n">
         <v>171</v>
       </c>
-      <c r="C12" t="n">
-        <v>-241.0955401536781</v>
-      </c>
-      <c r="D12" t="n">
-        <v>569.7713916656533</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1244,12 +1168,6 @@
       <c r="B13" t="n">
         <v>172</v>
       </c>
-      <c r="C13" t="n">
-        <v>-229.7038995180715</v>
-      </c>
-      <c r="D13" t="n">
-        <v>605.9118740529345</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1258,12 +1176,6 @@
       <c r="B14" t="n">
         <v>174</v>
       </c>
-      <c r="C14" t="n">
-        <v>-245.0504068527566</v>
-      </c>
-      <c r="D14" t="n">
-        <v>592.7206033415679</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1272,12 +1184,6 @@
       <c r="B15" t="n">
         <v>179</v>
       </c>
-      <c r="C15" t="n">
-        <v>-221.8444527470265</v>
-      </c>
-      <c r="D15" t="n">
-        <v>582.0209321573318</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1286,12 +1192,6 @@
       <c r="B16" t="n">
         <v>184</v>
       </c>
-      <c r="C16" t="n">
-        <v>-218.1429498191668</v>
-      </c>
-      <c r="D16" t="n">
-        <v>596.0869805444859</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1300,12 +1200,6 @@
       <c r="B17" t="n">
         <v>188</v>
       </c>
-      <c r="C17" t="n">
-        <v>-218.5060536391856</v>
-      </c>
-      <c r="D17" t="n">
-        <v>610.7449116821531</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1314,12 +1208,6 @@
       <c r="B18" t="n">
         <v>190</v>
       </c>
-      <c r="C18" t="n">
-        <v>-204.4466852199109</v>
-      </c>
-      <c r="D18" t="n">
-        <v>567.729578836194</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1328,12 +1216,6 @@
       <c r="B19" t="n">
         <v>191</v>
       </c>
-      <c r="C19" t="n">
-        <v>-215.8276474676452</v>
-      </c>
-      <c r="D19" t="n">
-        <v>576.8736925643695</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1342,12 +1224,6 @@
       <c r="B20" t="n">
         <v>193</v>
       </c>
-      <c r="C20" t="n">
-        <v>-224.4537692885566</v>
-      </c>
-      <c r="D20" t="n">
-        <v>604.9324942485266</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1356,12 +1232,6 @@
       <c r="B21" t="n">
         <v>198</v>
       </c>
-      <c r="C21" t="n">
-        <v>-193.3249617715551</v>
-      </c>
-      <c r="D21" t="n">
-        <v>571.8593222373941</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1370,12 +1240,6 @@
       <c r="B22" t="n">
         <v>200</v>
       </c>
-      <c r="C22" t="n">
-        <v>-192.1584948395872</v>
-      </c>
-      <c r="D22" t="n">
-        <v>609.9612619121378</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1384,12 +1248,6 @@
       <c r="B23" t="n">
         <v>202</v>
       </c>
-      <c r="C23" t="n">
-        <v>-214.806295792353</v>
-      </c>
-      <c r="D23" t="n">
-        <v>584.3430516941751</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1398,12 +1256,6 @@
       <c r="B24" t="n">
         <v>205</v>
       </c>
-      <c r="C24" t="n">
-        <v>-183.6687517706385</v>
-      </c>
-      <c r="D24" t="n">
-        <v>645.0168399834016</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1412,12 +1264,6 @@
       <c r="B25" t="n">
         <v>207</v>
       </c>
-      <c r="C25" t="n">
-        <v>-199.8928390991081</v>
-      </c>
-      <c r="D25" t="n">
-        <v>613.882590740065</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1426,12 +1272,6 @@
       <c r="B26" t="n">
         <v>208</v>
       </c>
-      <c r="C26" t="n">
-        <v>-203.3712464751236</v>
-      </c>
-      <c r="D26" t="n">
-        <v>596.6500787825605</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1440,12 +1280,6 @@
       <c r="B27" t="n">
         <v>210</v>
       </c>
-      <c r="C27" t="n">
-        <v>-184.1571482932552</v>
-      </c>
-      <c r="D27" t="n">
-        <v>615.3743615991089</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1454,12 +1288,6 @@
       <c r="B28" t="n">
         <v>212</v>
       </c>
-      <c r="C28" t="n">
-        <v>-190.9550852444267</v>
-      </c>
-      <c r="D28" t="n">
-        <v>625.0137853817711</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1468,12 +1296,6 @@
       <c r="B29" t="n">
         <v>214</v>
       </c>
-      <c r="C29" t="n">
-        <v>-197.5487636912597</v>
-      </c>
-      <c r="D29" t="n">
-        <v>638.0778145247619</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1482,12 +1304,6 @@
       <c r="B30" t="n">
         <v>215</v>
       </c>
-      <c r="C30" t="n">
-        <v>-187.8618248386521</v>
-      </c>
-      <c r="D30" t="n">
-        <v>617.8300117660276</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1496,12 +1312,6 @@
       <c r="B31" t="n">
         <v>219</v>
       </c>
-      <c r="C31" t="n">
-        <v>-143.0525781071484</v>
-      </c>
-      <c r="D31" t="n">
-        <v>628.0726842601082</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1510,12 +1320,6 @@
       <c r="B32" t="n">
         <v>227</v>
       </c>
-      <c r="C32" t="n">
-        <v>-170.4306019477474</v>
-      </c>
-      <c r="D32" t="n">
-        <v>665.2185152569886</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1524,12 +1328,6 @@
       <c r="B33" t="n">
         <v>229</v>
       </c>
-      <c r="C33" t="n">
-        <v>-183.3071517255414</v>
-      </c>
-      <c r="D33" t="n">
-        <v>667.2424218385895</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1538,12 +1336,6 @@
       <c r="B34" t="n">
         <v>231</v>
       </c>
-      <c r="C34" t="n">
-        <v>-200.6985138798912</v>
-      </c>
-      <c r="D34" t="n">
-        <v>613.7021503156516</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1552,12 +1344,6 @@
       <c r="B35" t="n">
         <v>232</v>
       </c>
-      <c r="C35" t="n">
-        <v>-180.9648452071107</v>
-      </c>
-      <c r="D35" t="n">
-        <v>650.604289464809</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1566,12 +1352,6 @@
       <c r="B36" t="n">
         <v>234</v>
       </c>
-      <c r="C36" t="n">
-        <v>-197.1971400958164</v>
-      </c>
-      <c r="D36" t="n">
-        <v>665.8555631882721</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1580,12 +1360,6 @@
       <c r="B37" t="n">
         <v>237</v>
       </c>
-      <c r="C37" t="n">
-        <v>-161.9534603948039</v>
-      </c>
-      <c r="D37" t="n">
-        <v>640.1545848500188</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1594,12 +1368,6 @@
       <c r="B38" t="n">
         <v>241</v>
       </c>
-      <c r="C38" t="n">
-        <v>-133.1458565760508</v>
-      </c>
-      <c r="D38" t="n">
-        <v>644.1330788070374</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1608,12 +1376,6 @@
       <c r="B39" t="n">
         <v>244</v>
       </c>
-      <c r="C39" t="n">
-        <v>-172.5830423225918</v>
-      </c>
-      <c r="D39" t="n">
-        <v>653.9158798891086</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1622,12 +1384,6 @@
       <c r="B40" t="n">
         <v>255</v>
       </c>
-      <c r="C40" t="n">
-        <v>-137.0553342970521</v>
-      </c>
-      <c r="D40" t="n">
-        <v>681.058744520918</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1636,12 +1392,6 @@
       <c r="B41" t="n">
         <v>256</v>
       </c>
-      <c r="C41" t="n">
-        <v>-162.5561222230879</v>
-      </c>
-      <c r="D41" t="n">
-        <v>661.2177571897599</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1650,12 +1400,6 @@
       <c r="B42" t="n">
         <v>258</v>
       </c>
-      <c r="C42" t="n">
-        <v>-155.2319991759211</v>
-      </c>
-      <c r="D42" t="n">
-        <v>686.7758146314875</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1664,12 +1408,6 @@
       <c r="B43" t="n">
         <v>265</v>
       </c>
-      <c r="C43" t="n">
-        <v>-158.8405799910501</v>
-      </c>
-      <c r="D43" t="n">
-        <v>688.6636576130987</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1678,12 +1416,6 @@
       <c r="B44" t="n">
         <v>266</v>
       </c>
-      <c r="C44" t="n">
-        <v>-159.2096191185633</v>
-      </c>
-      <c r="D44" t="n">
-        <v>689.2025938242438</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1692,12 +1424,6 @@
       <c r="B45" t="n">
         <v>268</v>
       </c>
-      <c r="C45" t="n">
-        <v>-133.1233982442465</v>
-      </c>
-      <c r="D45" t="n">
-        <v>658.7782611931052</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1706,12 +1432,6 @@
       <c r="B46" t="n">
         <v>270</v>
       </c>
-      <c r="C46" t="n">
-        <v>-115.7704249167692</v>
-      </c>
-      <c r="D46" t="n">
-        <v>673.170715609945</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1720,12 +1440,6 @@
       <c r="B47" t="n">
         <v>273</v>
       </c>
-      <c r="C47" t="n">
-        <v>-141.9110908779619</v>
-      </c>
-      <c r="D47" t="n">
-        <v>684.255151715775</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1734,12 +1448,6 @@
       <c r="B48" t="n">
         <v>285</v>
       </c>
-      <c r="C48" t="n">
-        <v>-144.605036115071</v>
-      </c>
-      <c r="D48" t="n">
-        <v>680.1887598585121</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1748,12 +1456,6 @@
       <c r="B49" t="n">
         <v>287</v>
       </c>
-      <c r="C49" t="n">
-        <v>-121.8118551303266</v>
-      </c>
-      <c r="D49" t="n">
-        <v>697.6005664176463</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1762,12 +1464,6 @@
       <c r="B50" t="n">
         <v>289</v>
       </c>
-      <c r="C50" t="n">
-        <v>-123.5401259242626</v>
-      </c>
-      <c r="D50" t="n">
-        <v>696.6532849912813</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1776,12 +1472,6 @@
       <c r="B51" t="n">
         <v>290</v>
       </c>
-      <c r="C51" t="n">
-        <v>-143.4414486643322</v>
-      </c>
-      <c r="D51" t="n">
-        <v>653.4829814105872</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1790,12 +1480,6 @@
       <c r="B52" t="n">
         <v>292</v>
       </c>
-      <c r="C52" t="n">
-        <v>-114.1064786554797</v>
-      </c>
-      <c r="D52" t="n">
-        <v>719.1578919376384</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1804,12 +1488,6 @@
       <c r="B53" t="n">
         <v>296</v>
       </c>
-      <c r="C53" t="n">
-        <v>-140.4427909382013</v>
-      </c>
-      <c r="D53" t="n">
-        <v>709.2233034831384</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1818,12 +1496,6 @@
       <c r="B54" t="n">
         <v>297</v>
       </c>
-      <c r="C54" t="n">
-        <v>-93.37523929648128</v>
-      </c>
-      <c r="D54" t="n">
-        <v>705.1292581744472</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1832,12 +1504,6 @@
       <c r="B55" t="n">
         <v>299</v>
       </c>
-      <c r="C55" t="n">
-        <v>-136.2841929493068</v>
-      </c>
-      <c r="D55" t="n">
-        <v>688.2866227362425</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1846,12 +1512,6 @@
       <c r="B56" t="n">
         <v>301</v>
       </c>
-      <c r="C56" t="n">
-        <v>-75.850916194337</v>
-      </c>
-      <c r="D56" t="n">
-        <v>725.2527287747047</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1860,12 +1520,6 @@
       <c r="B57" t="n">
         <v>302</v>
       </c>
-      <c r="C57" t="n">
-        <v>-101.3877196515476</v>
-      </c>
-      <c r="D57" t="n">
-        <v>718.9166568389173</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1874,12 +1528,6 @@
       <c r="B58" t="n">
         <v>304</v>
       </c>
-      <c r="C58" t="n">
-        <v>-69.31330292229246</v>
-      </c>
-      <c r="D58" t="n">
-        <v>717.2380787853631</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1888,12 +1536,6 @@
       <c r="B59" t="n">
         <v>306</v>
       </c>
-      <c r="C59" t="n">
-        <v>-109.0741517221118</v>
-      </c>
-      <c r="D59" t="n">
-        <v>722.4774114231493</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1902,12 +1544,6 @@
       <c r="B60" t="n">
         <v>308</v>
       </c>
-      <c r="C60" t="n">
-        <v>-85.38687562603502</v>
-      </c>
-      <c r="D60" t="n">
-        <v>730.883719539659</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1915,12 +1551,6 @@
       </c>
       <c r="B61" t="n">
         <v>309</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-103.8415247864212</v>
-      </c>
-      <c r="D61" t="n">
-        <v>744.5020467831605</v>
       </c>
     </row>
   </sheetData>
